--- a/biology/Botanique/Morchella_dunensis/Morchella_dunensis.xlsx
+++ b/biology/Botanique/Morchella_dunensis/Morchella_dunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Morille des dunes (Morchella dunensis) est une espèce de champignons de la famille des Morchellaceae (ordre des Pezizales). C'est un excellent comestible[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Morille des dunes (Morchella dunensis) est une espèce de champignons de la famille des Morchellaceae (ordre des Pezizales). C'est un excellent comestible.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (25 janvier 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (25 janvier 2023) :
 Morchella dunensis f. dunensis ;
 Morchella dunensis f. sterilis Picón, 1998.</t>
         </is>
@@ -543,11 +557,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Morchella dunensis (Castañera &amp; G.Moreno) Clowez, 1997[2].
-Le basionyme de ce taxon est : Morchella esculenta f. dunensis Castañera, J.L.Alonso &amp; G.Moreno, 1996[2]
-Morchella dunensis a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Morchella dunensis (Castañera &amp; G.Moreno) Clowez, 1997.
+Le basionyme de ce taxon est : Morchella esculenta f. dunensis Castañera, J.L.Alonso &amp; G.Moreno, 1996
+Morchella dunensis a pour synonymes :
 Morchella andalusiae Clowez &amp; L.Romero, 2012
 Morchella dunensis (Castañera &amp; G.Moreno) Clowez, 1997
 Morchella esculenta f. dunensis Castañera, J.L.Alonso &amp; G.Moreno, 1996
